--- a/Dhruv-annotations/ANET_Q1_2020.xlsx
+++ b/Dhruv-annotations/ANET_Q1_2020.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dhruv/Desktop/SubjECTive-QA/Dhruv-annotations/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A3070D0-DDF1-F14C-A525-CF24EFB65D85}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97C54790-055A-AB46-A374-F44B207A9E08}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="102">
   <si>
     <t>Asker</t>
   </si>
@@ -289,12 +289,6 @@
     <t>Okay, I will try and answer the question you are sounding very muffled, Paul. Maybe you're wearing a mask. But if I understood the question, what does the competitive landscape look like with cloud titans and I would just sort of generically say that our fundamental thesis is unchanged. We're not seeing major competitive issues or architectural shifts.In fact, if you look at the recently released market data from both Deloro and Creehan, it validates our number one spot in 100 gig. And for the third consecutive year, we are doing that, where we are the number one market share in 100 gig.And we continue to increase market share into the high teens for high-performance data center switching. So, we are pleased with our progress year after year, including 2019. Anshul, I'd like to call you to see if there's any specific titan issues you want to highlight.</t>
   </si>
   <si>
-    <t>No, Jayshree, and as we've said before, Paul, the level of sort of joint development, we continue to do with these customers including Microsoft, is still pretty intense. So, we're not overly worried. Yes, these are competitive environments that will continue to be so. But there's no major shift.</t>
-  </si>
-  <si>
-    <t>Paul, this is a good time for me to highlight -- the work Anshul has been doing. As you know, we have a rich long history in open networking. And today, Arista just introduced a switch abstraction interface, working so that we can work with our best-of-breed platforms and an abstraction layer for cloud titans and who can now use Sonic on top of our Arista SAI. And this is another example of the close collaboration Anshul is mentioning.</t>
-  </si>
-  <si>
     <t>And Jayshree, if I could just follow-up, I appreciate the market share comments. But obviously, mortgage share is the exactly booking phenomenon and so with respect to forward-looking and the risk of displacement, you all haven't seen or heard anything from those cloud sittings [ph] that would cause you incremental concern relative to where you've been historically?</t>
   </si>
   <si>
@@ -308,12 +302,6 @@
   </si>
   <si>
     <t>Thank you, Ben. Well, look, I think the greatest acceleration for Arista came when the cloud titans made a huge migration to a lease fine architecture and especially standardized on Arista's EOS for 100 gigabit universal spine.So - and then on top of that acceleration, a number of titans co-developed with us, our join development focus that allow them to scale those through distributed datacenters all over the region and all over the cloud.So I think the next acceleration comes from more used cases, with 400-gig and 100-gig with the possibility of extending the data centers and their server density and their storage capabilities.And I don't think that’s necessarily this year but it could be in the next three years. So we will have to be a repeat or how we succeeded in 100-gig and 400-gig levels. Anshul, do you want to add something more to that?</t>
-  </si>
-  <si>
-    <t>Yes. Then the way to look at the cloud and I know the cloud titans they started with data centers with compute and storage. And then moved down to different types of apps and are continuing that journey.And the next phase of investment in this pace now view there will be more at the edge by edge I don't mean directly just edge computing, but think of thousands type of make me please so the telecompany I think continue to invest in that area. And then connect that back into the tenant space in their large data centers.And these networks of different kinds being built or will continue be built in the next few years. With different types of overlays and encryption and mapping from one tenant space to the other and so on.I think that's very significant, because in the longer picture, if you look at it five, 10 years from now, we will look back and say, wow, this is how the cloud companies re-stitched the Internet. And I think those are some of the most strategic projects in the next few years.</t>
-  </si>
-  <si>
-    <t>Thanks, Ashu. That's great. The DCI and routing use cases cannot be underestimated. And they truly redefine the Internet.</t>
   </si>
   <si>
     <t>Jin Ho</t>
@@ -702,10 +690,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J42"/>
+  <dimension ref="A1:J40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="150" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+    <sheetView tabSelected="1" topLeftCell="A30" zoomScale="150" workbookViewId="0">
+      <selection activeCell="E37" sqref="E37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1768,7 +1756,7 @@
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>51</v>
+        <v>86</v>
       </c>
       <c r="B35" t="s">
         <v>11</v>
@@ -1786,13 +1774,13 @@
         <v>2</v>
       </c>
       <c r="G35">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H35">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I35">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J35">
         <v>1</v>
@@ -1800,54 +1788,54 @@
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="B36" t="s">
         <v>11</v>
       </c>
       <c r="C36" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D36" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E36">
         <v>2</v>
       </c>
       <c r="F36">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G36">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H36">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I36">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J36">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B37" t="s">
         <v>11</v>
       </c>
       <c r="C37" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D37" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E37">
         <v>2</v>
       </c>
       <c r="F37">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G37">
         <v>1</v>
@@ -1859,36 +1847,36 @@
         <v>2</v>
       </c>
       <c r="J37">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>51</v>
+        <v>94</v>
       </c>
       <c r="B38" t="s">
         <v>11</v>
       </c>
       <c r="C38" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D38" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="E38">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F38">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G38">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H38">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I38">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J38">
         <v>1</v>
@@ -1896,7 +1884,7 @@
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>98</v>
+        <v>29</v>
       </c>
       <c r="B39" t="s">
         <v>11</v>
@@ -1908,19 +1896,19 @@
         <v>100</v>
       </c>
       <c r="E39">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F39">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G39">
         <v>1</v>
       </c>
       <c r="H39">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I39">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J39">
         <v>1</v>
@@ -1928,25 +1916,25 @@
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>98</v>
+        <v>29</v>
       </c>
       <c r="B40" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="C40" t="s">
+        <v>99</v>
+      </c>
+      <c r="D40" t="s">
         <v>101</v>
       </c>
-      <c r="D40" t="s">
-        <v>102</v>
-      </c>
       <c r="E40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F40">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G40">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H40">
         <v>1</v>
@@ -1955,70 +1943,6 @@
         <v>0</v>
       </c>
       <c r="J40">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A41" t="s">
-        <v>29</v>
-      </c>
-      <c r="B41" t="s">
-        <v>11</v>
-      </c>
-      <c r="C41" t="s">
-        <v>103</v>
-      </c>
-      <c r="D41" t="s">
-        <v>104</v>
-      </c>
-      <c r="E41">
-        <v>1</v>
-      </c>
-      <c r="F41">
-        <v>0</v>
-      </c>
-      <c r="G41">
-        <v>1</v>
-      </c>
-      <c r="H41">
-        <v>1</v>
-      </c>
-      <c r="I41">
-        <v>0</v>
-      </c>
-      <c r="J41">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A42" t="s">
-        <v>29</v>
-      </c>
-      <c r="B42" t="s">
-        <v>20</v>
-      </c>
-      <c r="C42" t="s">
-        <v>103</v>
-      </c>
-      <c r="D42" t="s">
-        <v>105</v>
-      </c>
-      <c r="E42">
-        <v>0</v>
-      </c>
-      <c r="F42">
-        <v>2</v>
-      </c>
-      <c r="G42">
-        <v>1</v>
-      </c>
-      <c r="H42">
-        <v>1</v>
-      </c>
-      <c r="I42">
-        <v>0</v>
-      </c>
-      <c r="J42">
         <v>0</v>
       </c>
     </row>
